--- a/assigment0/ai_part_2.xlsx
+++ b/assigment0/ai_part_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Operation</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>O(n)</t>
-  </si>
-  <si>
-    <t>O(n/2)</t>
   </si>
   <si>
     <t>Part 2</t>
@@ -402,7 +399,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +409,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -434,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -479,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -493,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -501,12 +498,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
